--- a/medicine/Mort/Cimetière_boisé_de_Tallinn/Cimetière_boisé_de_Tallinn.xlsx
+++ b/medicine/Mort/Cimetière_boisé_de_Tallinn/Cimetière_boisé_de_Tallinn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_bois%C3%A9_de_Tallinn</t>
+          <t>Cimetière_boisé_de_Tallinn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière boisé de Tallinn (estonien : Metsakalmistu) est un cimetière boisé situé dans l'arrondissement de Pirita à Tallinn en Estonie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_bois%C3%A9_de_Tallinn</t>
+          <t>Cimetière_boisé_de_Tallinn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière boisé, situé au 36, rue Kloostrimetsa tee ouvre en 1939.
 Conçue par Herbert Johanson, la chapelle funéraire du cimetière est construite en 1936.
 En 1996, la chapelle est incendiée par des  vandales, elle est restaurée par la ville.
 En 2006, le cimetière ouvre un colombarium.
-En 2006, le cimetière est organisé en carrés par métiers: acteurs, sportifs, compositeurs, écrivains, artistes, journalistes, médecins, membres de l'union des architectes, membres du régiment d'infanterie 200 de l'armée finlandaise, anciens combattants de la guerre d'indépendance, chercheurs et autres personnalités célèbres[1].
+En 2006, le cimetière est organisé en carrés par métiers: acteurs, sportifs, compositeurs, écrivains, artistes, journalistes, médecins, membres de l'union des architectes, membres du régiment d'infanterie 200 de l'armée finlandaise, anciens combattants de la guerre d'indépendance, chercheurs et autres personnalités célèbres.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_bois%C3%A9_de_Tallinn</t>
+          <t>Cimetière_boisé_de_Tallinn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnalités enterrées au cimetière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Emma Asson
